--- a/Public Certificate Classes Overview.xlsx
+++ b/Public Certificate Classes Overview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Talapoin\Desktop\Data_Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FEC9C1-A024-4948-85CE-F36517B1CFDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F288F976-F8E3-4AB4-A144-3E3F9CD66523}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{8C694358-8CE8-4CB2-A980-85ECD8B7CCCD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C694358-8CE8-4CB2-A980-85ECD8B7CCCD}"/>
   </bookViews>
   <sheets>
     <sheet name="DS Dashboard" sheetId="15" r:id="rId1"/>
@@ -1645,14 +1645,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2090,8 +2090,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{DA61930C-6C6A-40A4-A528-A628720120F1}" name="Table2610" displayName="Table2610" ref="A3:F49" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
-  <autoFilter ref="A3:F49" xr:uid="{229076FA-6DA4-457E-A2B3-B17677B3644F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{DA61930C-6C6A-40A4-A528-A628720120F1}" name="Table2610" displayName="Table2610" ref="A3:F48" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
+  <autoFilter ref="A3:F48" xr:uid="{229076FA-6DA4-457E-A2B3-B17677B3644F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{9528DA1B-3E2C-49F6-9889-58B29D4C1E38}" name="Course number" dataDxfId="100"/>
     <tableColumn id="2" xr3:uid="{1687DD61-C80A-46E9-91B1-2CFC671B52CF}" name="Title" dataDxfId="99"/>
@@ -2554,7 +2554,7 @@
   <dimension ref="B1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2575,10 +2575,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="68" t="s">
         <v>354</v>
       </c>
-      <c r="C1" s="70"/>
+      <c r="C1" s="68"/>
       <c r="D1" s="5" t="s">
         <v>355</v>
       </c>
@@ -2707,14 +2707,14 @@
     <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="45">
         <f>AVERAGE(D3:D6)</f>
-        <v>0.6</v>
+        <v>0.6875</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>339</v>
       </c>
       <c r="D5" s="50">
         <f>ROUND((COUNTIF(Table2610[[#All],[Date completed]],"&lt;&gt;")-1)/(COUNTIF(Table2610[[#All],[Week]],"&lt;&gt;")-1),2)</f>
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="E5" s="60">
         <f>'Google Data Analyst '!G49</f>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="F5" s="61">
         <f>E5*D5</f>
-        <v>113.75</v>
+        <v>175</v>
       </c>
       <c r="H5" t="s">
         <v>217</v>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="F16" s="56">
         <f>SUM(F3:F15)</f>
-        <v>385.86500000000001</v>
+        <v>447.11500000000001</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
@@ -3209,19 +3209,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="12" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="H2" s="6" t="s">
         <v>102</v>
       </c>
@@ -4027,22 +4027,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69" t="s">
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="12" t="s">
         <v>113</v>
       </c>
@@ -4603,19 +4603,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="H2" s="6" t="s">
         <v>102</v>
       </c>
@@ -4996,8 +4996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAECB6E1-C42E-4508-8A78-32F52CCC00F3}">
   <dimension ref="A1:K54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5017,17 +5017,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="H2" s="6" t="s">
         <v>102</v>
       </c>
@@ -5063,11 +5063,11 @@
       </c>
       <c r="I3" s="7">
         <f>MAX(F4:F52)</f>
-        <v>44340</v>
+        <v>44357</v>
       </c>
       <c r="J3" s="6">
         <f>WEEKNUM(I3-H3)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5539,7 +5539,9 @@
       <c r="E32" s="1">
         <v>9</v>
       </c>
-      <c r="F32" s="3"/>
+      <c r="F32" s="3">
+        <v>44345</v>
+      </c>
       <c r="G32" s="1">
         <f>SUM(E29:E32)</f>
         <v>23</v>
@@ -5569,7 +5571,9 @@
       <c r="E34" s="1">
         <v>6</v>
       </c>
-      <c r="F34" s="3"/>
+      <c r="F34" s="3">
+        <v>44345</v>
+      </c>
       <c r="I34"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -5583,7 +5587,9 @@
       <c r="E35" s="1">
         <v>5</v>
       </c>
-      <c r="F35" s="3"/>
+      <c r="F35" s="3">
+        <v>44346</v>
+      </c>
       <c r="I35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -5597,7 +5603,9 @@
       <c r="E36" s="1">
         <v>5</v>
       </c>
-      <c r="F36" s="3"/>
+      <c r="F36" s="3">
+        <v>44347</v>
+      </c>
       <c r="I36"/>
       <c r="J36"/>
     </row>
@@ -5612,7 +5620,9 @@
       <c r="E37" s="1">
         <v>6</v>
       </c>
-      <c r="F37" s="3"/>
+      <c r="F37" s="3">
+        <v>44348</v>
+      </c>
       <c r="G37" s="1">
         <f>SUM(E34:E37)</f>
         <v>22</v>
@@ -5642,7 +5652,9 @@
       <c r="E39" s="1">
         <v>8</v>
       </c>
-      <c r="F39" s="3"/>
+      <c r="F39" s="3">
+        <v>44349</v>
+      </c>
       <c r="I39"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -5656,7 +5668,9 @@
       <c r="E40" s="1">
         <v>5</v>
       </c>
-      <c r="F40" s="3"/>
+      <c r="F40" s="3">
+        <v>44352</v>
+      </c>
       <c r="I40"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -5670,7 +5684,9 @@
       <c r="E41" s="1">
         <v>8</v>
       </c>
-      <c r="F41" s="3"/>
+      <c r="F41" s="3">
+        <v>44356</v>
+      </c>
       <c r="I41"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -5684,7 +5700,9 @@
       <c r="E42" s="1">
         <v>8</v>
       </c>
-      <c r="F42" s="3"/>
+      <c r="F42" s="3">
+        <v>44357</v>
+      </c>
       <c r="I42"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -5698,7 +5716,9 @@
       <c r="E43" s="1">
         <v>8</v>
       </c>
-      <c r="F43" s="3"/>
+      <c r="F43" s="3">
+        <v>44357</v>
+      </c>
       <c r="G43" s="1">
         <f>SUM(E39:E43)</f>
         <v>37</v>
@@ -5727,7 +5747,9 @@
       <c r="E45" s="1">
         <v>2</v>
       </c>
-      <c r="F45" s="3"/>
+      <c r="F45" s="3">
+        <v>44352</v>
+      </c>
       <c r="I45"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -5740,7 +5762,9 @@
       <c r="E46" s="1">
         <v>4</v>
       </c>
-      <c r="F46" s="3"/>
+      <c r="F46" s="3">
+        <v>44352</v>
+      </c>
       <c r="I46"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -5753,7 +5777,9 @@
       <c r="E47" s="1">
         <v>3</v>
       </c>
-      <c r="F47" s="3"/>
+      <c r="F47" s="3">
+        <v>44352</v>
+      </c>
       <c r="I47"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -5766,7 +5792,9 @@
       <c r="E48" s="1">
         <v>1</v>
       </c>
-      <c r="F48" s="3"/>
+      <c r="F48" s="3">
+        <v>44352</v>
+      </c>
       <c r="G48" s="1">
         <f>SUM(E45:E48)</f>
         <v>10</v>
@@ -5864,7 +5892,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -5941,17 +5969,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="F1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="H2" s="6" t="s">
         <v>102</v>
       </c>
@@ -6880,11 +6908,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="1" t="s">
         <v>341</v>
       </c>
@@ -6893,9 +6921,9 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="H2" s="6" t="s">
         <v>102</v>
       </c>
@@ -7275,16 +7303,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>326</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="H2" s="6" t="s">
         <v>102</v>
       </c>
@@ -7744,19 +7772,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="H2" s="6" t="s">
         <v>102</v>
       </c>
@@ -8632,20 +8660,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="12"/>
       <c r="H2" s="6" t="s">
         <v>102</v>
@@ -9108,20 +9136,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="12"/>
       <c r="H2" s="6" t="s">
         <v>102</v>
@@ -9633,16 +9661,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="H2" s="6" t="s">
         <v>102</v>
       </c>
